--- a/Tests/integrationTests/04_Model execution/Test_cases_Model_Execution.xlsx
+++ b/Tests/integrationTests/04_Model execution/Test_cases_Model_Execution.xlsx
@@ -265,12 +265,6 @@
 4. Click on button 'Read File' and select created file of test MODEL_EXEC_1</t>
   </si>
   <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-model: ReadWriteCSV\csvwriter.acs
-Test MODEL_EXEC_1</t>
-  </si>
-  <si>
     <t>1. The model must be deployed and started successfully.
 2. After clicking 'Read file' the Oscilloscope must show a correct sinus signal</t>
   </si>
@@ -465,6 +459,12 @@
   </si>
   <si>
     <t>Environment (OS + Version, Architecture, Java Version):</t>
+  </si>
+  <si>
+    <t>ARE start file: Are.exe (start.sh - Linux)
+ACS: ACS.exe
+model: ReadWriteCSV\csvread.acs
+Test MODEL_EXEC_1</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -857,7 +857,7 @@
   <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,10 +874,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -888,7 +888,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
@@ -899,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -951,13 +951,13 @@
         <v>28</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="5"/>
     </row>
@@ -969,13 +969,13 @@
         <v>29</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -987,13 +987,13 @@
         <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="F10" s="5"/>
     </row>
@@ -1005,13 +1005,13 @@
         <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F11" s="5"/>
     </row>
@@ -1023,13 +1023,13 @@
         <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -1041,13 +1041,13 @@
         <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="5"/>
     </row>
@@ -1059,13 +1059,13 @@
         <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -1077,13 +1077,13 @@
         <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="5"/>
     </row>
@@ -1095,13 +1095,13 @@
         <v>36</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="F16" s="5"/>
     </row>
@@ -1113,13 +1113,13 @@
         <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -1128,16 +1128,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="5"/>
     </row>
@@ -1146,7 +1146,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1158,7 +1158,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1173,13 +1173,13 @@
         <v>38</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="F21" s="5"/>
     </row>
@@ -1191,13 +1191,13 @@
         <v>40</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="F22" s="5"/>
     </row>
@@ -1209,31 +1209,31 @@
         <v>41</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="F24" s="5"/>
     </row>

--- a/Tests/integrationTests/04_Model execution/Test_cases_Model_Execution.xlsx
+++ b/Tests/integrationTests/04_Model execution/Test_cases_Model_Execution.xlsx
@@ -141,11 +141,6 @@
 showErrorDialogs=1</t>
   </si>
   <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-activate model: CameraMouse.acs</t>
-  </si>
-  <si>
     <t>Test model execution behaviour. Execution order, behaviour in case of exceptions or hanging plugin tasks. What happens in fallback scenarious?</t>
   </si>
   <si>
@@ -240,11 +235,6 @@
   </si>
   <si>
     <t>MODEL_EXEC_17</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-model: ReadWriteCSV\csvwriter.acs</t>
   </si>
   <si>
     <t>1. Execute ARE start file
@@ -269,202 +259,212 @@
 2. After clicking 'Read file' the Oscilloscope must show a correct sinus signal</t>
   </si>
   <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
+    <t>Set runtime component property of hanging plugin
+(Can be skipped, is contained in MODEL_EXEC_10)</t>
+  </si>
+  <si>
+    <t>Stop hanging model
+(Can be skipped, is contained in MODEL_EXEC_10)</t>
+  </si>
+  <si>
+    <t>1. Deploy model file
+2. Start model</t>
+  </si>
+  <si>
+    <t>1. The startup of the model must fail and the ARE show an informative error message
+2. ACS: The model in the ACS must be colored red</t>
+  </si>
+  <si>
+    <t>1. Deploy model file
+2. Start model
+3. Pause model</t>
+  </si>
+  <si>
+    <t>1. The startup of the model must be successful
+2. The pausing of the model must fail and the ARE show an informative error message
+3. (ACS: The model in the ACS must be colored red)</t>
+  </si>
+  <si>
+    <t>1. Deploy model file
+2. Start model
+3. Stop model</t>
+  </si>
+  <si>
+    <t>1. The startup of the model must be successful
+2. The stopping of the model must fail and the ARE show an informative error message
+3. (ACS: The model in the ACS must be colored red)</t>
+  </si>
+  <si>
+    <t>1. The startup of the model must take 10 seconds and be successful</t>
+  </si>
+  <si>
+    <t>1. The stop of the model must take 10 seconds and be successful</t>
+  </si>
+  <si>
+    <t>1. The startup of the model must timeout and the ARE show an informative error message</t>
+  </si>
+  <si>
+    <t>1. The stop of the model must timeout and the ARE show an informative error message</t>
+  </si>
+  <si>
+    <t>1. Deploy and Start model
+2. Click on any button of the cellboard
+3. ACS: Select CellBoard plugin and change text of cell1
+4. Stop model</t>
+  </si>
+  <si>
+    <t>Clicking on any button triggers a dead lock in the model executor. The selection should not work but the GUI must not freeze. 
+Setting a CellBoard property  should fail (timeout) but the ARE must not die.
+The stopping takes some time,  after a timeout the model should be stopped and the ARE fine and responsive</t>
+  </si>
+  <si>
+    <t>1. Deploy and Start model
+2. Click on button 'Start deadlock'
+3. Wait 30 seconds
+4. Stop model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start deadlock' triggers a deadlock in the model executor. The SignalGenerator (Timer) still periodically generates signal data.
+After the 30 sec. The ARE must be fine and responsive.
+The model stopping should take some time but successful </t>
+  </si>
+  <si>
+    <t>1. Deploy and Start model
+2. ACS: Select FacetrackerLK plugin and change cameraSelection</t>
+  </si>
+  <si>
+    <t>Test fast incoming data from FacetrackerLK (due to a bug in the FacetrackerLK plugin)</t>
+  </si>
+  <si>
+    <t>Changing the camera device while the pluign is running does not work due to a bug in the plugin. Instead the plugin starts to send new coordinates very fast
+If the processing of the model is too slow, the ARE must reject new new coordinate tasks and stay alive and responsive</t>
+  </si>
+  <si>
+    <t>1. Execute Test MODEL_EXEC_10 without stopping the model
+2. Open second model
+3. Deploy second model
+4. Start second model</t>
+  </si>
+  <si>
+    <t>The deployment of the model should first stop the running model. 
+Stopping the model will take some time but must be successfl
+After stopping the new model must be deployed successfully
+After deployment the model must be startable without showing any orphaned ARE GUI elements</t>
+  </si>
+  <si>
+    <t>1. Deploy and Start model
+2. Click on button 'Send Data'</t>
+  </si>
+  <si>
+    <t>After 10 seconds the TextDisplay must show: '20.0'</t>
+  </si>
+  <si>
+    <t>MODEL_EXEC_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execution of SyntheticVoice delayed due to longterm plugin task </t>
+  </si>
+  <si>
+    <t>1. Deploy and Start model
+2. Click on any button</t>
+  </si>
+  <si>
+    <t>After 10 seconds a TTS engine should say the selected text</t>
+  </si>
+  <si>
+    <t>Test Execution Infos</t>
+  </si>
+  <si>
+    <t>Name of Tester:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Environment (OS + Version, Architecture, Java Version):</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+model: ReadWriteCSV\csvwriter.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+model: ReadWriteCSV\csvread.acs
+Test MODEL_EXEC_1</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+model: PluginStartException.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+model: PluginPauseException.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+model: PluginStopException.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+model: PluginStartTakes10Sec.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+model: PluginStopTakes10Sec.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+model: PluginStartHangs4ever.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+model: PluginStopHangs4ever.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
 ACS: ACS.exe
 model: HangWithCellBoard.acs</t>
   </si>
   <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh - Linux)
 ACS: ACS.exe
 model: SignalGeneratorHangWithDeadlock.acs</t>
   </si>
   <si>
-    <t>Set runtime component property of hanging plugin
-(Can be skipped, is contained in MODEL_EXEC_10)</t>
-  </si>
-  <si>
-    <t>Stop hanging model
-(Can be skipped, is contained in MODEL_EXEC_10)</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+activate model: CameraMouse.acs</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
 ACS: ACS.exe
 Test MODEL_EXEC_10
 first model: HangWithCellBoard.acs
 second model: demomenu.acs</t>
   </si>
   <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-model: PluginStartException.acs</t>
-  </si>
-  <si>
-    <t>1. Deploy model file
-2. Start model</t>
-  </si>
-  <si>
-    <t>1. The startup of the model must fail and the ARE show an informative error message
-2. ACS: The model in the ACS must be colored red</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-model: PluginPauseException.acs</t>
-  </si>
-  <si>
-    <t>1. Deploy model file
-2. Start model
-3. Pause model</t>
-  </si>
-  <si>
-    <t>1. The startup of the model must be successful
-2. The pausing of the model must fail and the ARE show an informative error message
-3. (ACS: The model in the ACS must be colored red)</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-model: PluginStopException.acs</t>
-  </si>
-  <si>
-    <t>1. Deploy model file
-2. Start model
-3. Stop model</t>
-  </si>
-  <si>
-    <t>1. The startup of the model must be successful
-2. The stopping of the model must fail and the ARE show an informative error message
-3. (ACS: The model in the ACS must be colored red)</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-model: PluginStartTakes10Sec.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-model: PluginStopTakes10Sec.acs</t>
-  </si>
-  <si>
-    <t>1. The startup of the model must take 10 seconds and be successful</t>
-  </si>
-  <si>
-    <t>1. The stop of the model must take 10 seconds and be successful</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-model: PluginStartHangs4ever.acs</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-model: PluginStopHangs4ever.acs</t>
-  </si>
-  <si>
-    <t>1. The startup of the model must timeout and the ARE show an informative error message</t>
-  </si>
-  <si>
-    <t>1. The stop of the model must timeout and the ARE show an informative error message</t>
-  </si>
-  <si>
-    <t>1. Deploy and Start model
-2. Click on any button of the cellboard
-3. ACS: Select CellBoard plugin and change text of cell1
-4. Stop model</t>
-  </si>
-  <si>
-    <t>Clicking on any button triggers a dead lock in the model executor. The selection should not work but the GUI must not freeze. 
-Setting a CellBoard property  should fail (timeout) but the ARE must not die.
-The stopping takes some time,  after a timeout the model should be stopped and the ARE fine and responsive</t>
-  </si>
-  <si>
-    <t>1. Deploy and Start model
-2. Click on button 'Start deadlock'
-3. Wait 30 seconds
-4. Stop model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start deadlock' triggers a deadlock in the model executor. The SignalGenerator (Timer) still periodically generates signal data.
-After the 30 sec. The ARE must be fine and responsive.
-The model stopping should take some time but successful </t>
-  </si>
-  <si>
-    <t>1. Deploy and Start model
-2. ACS: Select FacetrackerLK plugin and change cameraSelection</t>
-  </si>
-  <si>
-    <t>Test fast incoming data from FacetrackerLK (due to a bug in the FacetrackerLK plugin)</t>
-  </si>
-  <si>
-    <t>Changing the camera device while the pluign is running does not work due to a bug in the plugin. Instead the plugin starts to send new coordinates very fast
-If the processing of the model is too slow, the ARE must reject new new coordinate tasks and stay alive and responsive</t>
-  </si>
-  <si>
-    <t>1. Execute Test MODEL_EXEC_10 without stopping the model
-2. Open second model
-3. Deploy second model
-4. Start second model</t>
-  </si>
-  <si>
-    <t>The deployment of the model should first stop the running model. 
-Stopping the model will take some time but must be successfl
-After stopping the new model must be deployed successfully
-After deployment the model must be startable without showing any orphaned ARE GUI elements</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh - Linux)
 ACS: ACS.exe
 model: InAHang10Sec.acs</t>
   </si>
   <si>
-    <t>1. Deploy and Start model
-2. Click on button 'Send Data'</t>
-  </si>
-  <si>
-    <t>After 10 seconds the TextDisplay must show: '20.0'</t>
-  </si>
-  <si>
-    <t>MODEL_EXEC_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Execution of SyntheticVoice delayed due to longterm plugin task </t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh - Linux)
 ACS: ACS.exe
 model: EventAHang10Sec.acs</t>
   </si>
   <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
+    <t>ARE start file: start.bat (start.sh - Linux)
 ACS: ACS.exe
 model: ExecutionOrder_SyntheticVoice.acs</t>
-  </si>
-  <si>
-    <t>1. Deploy and Start model
-2. Click on any button</t>
-  </si>
-  <si>
-    <t>After 10 seconds a TTS engine should say the selected text</t>
-  </si>
-  <si>
-    <t>Test Execution Infos</t>
-  </si>
-  <si>
-    <t>Name of Tester:</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>Environment (OS + Version, Architecture, Java Version):</t>
-  </si>
-  <si>
-    <t>ARE start file: Are.exe (start.sh - Linux)
-ACS: ACS.exe
-model: ReadWriteCSV\csvread.acs
-Test MODEL_EXEC_1</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,10 +874,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -885,10 +885,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
@@ -899,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -927,226 +927,226 @@
     </row>
     <row r="7" spans="1:6" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1155,10 +1155,10 @@
     </row>
     <row r="20" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1167,73 +1167,73 @@
     </row>
     <row r="21" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F24" s="5"/>
     </row>

--- a/Tests/integrationTests/04_Model execution/Test_cases_Model_Execution.xlsx
+++ b/Tests/integrationTests/04_Model execution/Test_cases_Model_Execution.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
   <si>
     <t>Number</t>
   </si>
@@ -465,6 +465,28 @@
     <t>ARE start file: start.bat (start.sh - Linux)
 ACS: ACS.exe
 model: ExecutionOrder_SyntheticVoice.acs</t>
+  </si>
+  <si>
+    <t>MODEL_EXEC_19</t>
+  </si>
+  <si>
+    <t>Test storage of slider value between ARE restart</t>
+  </si>
+  <si>
+    <t>ARE start file: start.bat (start.sh - Linux)
+ACS: ACS.exe
+model: TestSliderStorage.acs</t>
+  </si>
+  <si>
+    <t>1. Start ARE
+2. Deploy and Start model
+3. Change slider value to 90
+4. Exit ARE
+5. Start ARE again
+6. Deploy and Start model</t>
+  </si>
+  <si>
+    <t>After restarting the ARE, the slider must be adjusted to the value 90</t>
   </si>
 </sst>
 </file>
@@ -846,7 +868,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -856,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,12 +1259,22 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">

--- a/Tests/integrationTests/04_Model execution/Test_cases_Model_Execution.xlsx
+++ b/Tests/integrationTests/04_Model execution/Test_cases_Model_Execution.xlsx
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>Number</t>
   </si>
@@ -135,10 +135,6 @@
   </si>
   <si>
     <t>Common Requirements</t>
-  </si>
-  <si>
-    <t>Note: If no error dialogs are shown in the ARE gui, ensure to set the following property in the fie 'areProperties':
-showErrorDialogs=1</t>
   </si>
   <si>
     <t>Test model execution behaviour. Execution order, behaviour in case of exceptions or hanging plugin tasks. What happens in fallback scenarious?</t>
@@ -488,12 +484,54 @@
   <si>
     <t>After restarting the ARE, the slider must be adjusted to the value 90</t>
   </si>
+  <si>
+    <t xml:space="preserve">TODO: 
+Add missing plugin jar test
+Add plugintype not in component collection test
+Add real plugin instantiation exception on Linux/Mac (due to native load error)
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: If no error dialogs are shown in the ARE gui, ensure to set the following property in the file 'areProperties':
+showErrorDialogs=1
+AsTeRICS must be installed according to test cases 01a_AsTeRICS_Setup
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ARE start files:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Win: ARE.exe, start.bat and start_debug.bat
+Linux: start.sh, start_debug.sh or asterics-are-javaembedded
+Mac OSX: start.sh, start_debug.sh</t>
+    </r>
+  </si>
+  <si>
+    <t>Applicable OS (Skip otherwise)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +562,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -577,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -598,6 +644,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,58 +925,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76.140625" customWidth="1"/>
-    <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
-    <col min="4" max="4" width="77" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" customWidth="1"/>
+    <col min="2" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" customWidth="1"/>
+    <col min="5" max="5" width="77" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="47.25" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="E2" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="167.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="183.75" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -935,827 +988,909 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="F22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="F24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="3"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="3"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="3"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="3"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="3"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="3"/>
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="3"/>
+      <c r="G70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="3"/>
+      <c r="G72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="3"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="3"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="3"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="3"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="3"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="3"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="3"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="3"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="3"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-      <c r="F85" s="4"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Tests/integrationTests/04_Model execution/Test_cases_Model_Execution.xlsx
+++ b/Tests/integrationTests/04_Model execution/Test_cases_Model_Execution.xlsx
@@ -492,6 +492,9 @@
 </t>
   </si>
   <si>
+    <t>Applicable OS (Skip otherwise)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Note: If no error dialogs are shown in the ARE gui, ensure to set the following property in the file 'areProperties':
 showErrorDialogs=1
@@ -519,19 +522,16 @@
         <scheme val="minor"/>
       </rPr>
       <t>Win: ARE.exe, start.bat and start_debug.bat
-Linux: start.sh, start_debug.sh or asterics-are-javaembedded
-Mac OSX: start.sh, start_debug.sh</t>
+Linux: start.sh, start_debug.sh or asterics-are
+Mac OSX: start.sh, start_debug.sh or asterics-are</t>
     </r>
-  </si>
-  <si>
-    <t>Applicable OS (Skip otherwise)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +574,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -645,7 +652,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -917,7 +924,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -928,7 +935,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,14 +975,14 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" s="6"/>
       <c r="E3" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="183.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>97</v>
       </c>
@@ -988,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>

--- a/Tests/integrationTests/04_Model execution/Test_cases_Model_Execution.xlsx
+++ b/Tests/integrationTests/04_Model execution/Test_cases_Model_Execution.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>Number</t>
   </si>
@@ -174,12 +174,6 @@
   </si>
   <si>
     <t>MODEL_EXEC_12</t>
-  </si>
-  <si>
-    <t>MODEL_EXEC_13</t>
-  </si>
-  <si>
-    <t>MODEL_EXEC_14</t>
   </si>
   <si>
     <t>MODEL_EXEC_15</t>
@@ -240,11 +234,6 @@
 5. Click on button 'Stop Writing'</t>
   </si>
   <si>
-    <t>1. The model must be deployed and started successfully.
-2. The Oscilloscope must show a correct sinus signal
-3. After clicking 'Stop Writing' a new file must exist in the folder: ARE\data\csv</t>
-  </si>
-  <si>
     <t>1. Execute ARE start file
 2. Start ACS
 3. Open, deploy and start model file
@@ -253,14 +242,6 @@
   <si>
     <t>1. The model must be deployed and started successfully.
 2. After clicking 'Read file' the Oscilloscope must show a correct sinus signal</t>
-  </si>
-  <si>
-    <t>Set runtime component property of hanging plugin
-(Can be skipped, is contained in MODEL_EXEC_10)</t>
-  </si>
-  <si>
-    <t>Stop hanging model
-(Can be skipped, is contained in MODEL_EXEC_10)</t>
   </si>
   <si>
     <t>1. Deploy model file
@@ -525,6 +506,11 @@
 Linux: start.sh, start_debug.sh or asterics-are
 Mac OSX: start.sh, start_debug.sh or asterics-are</t>
     </r>
+  </si>
+  <si>
+    <t>1. The model must be deployed and started successfully.
+2. The Oscilloscope must show a correct sinus signal
+3. After clicking 'Stop Writing' a new file must exist in the folder: ARE\data</t>
   </si>
 </sst>
 </file>
@@ -924,7 +910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -932,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,10 +938,10 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -967,7 +953,7 @@
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="167.25" x14ac:dyDescent="0.4">
@@ -975,16 +961,16 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C3" s="6"/>
       <c r="E3" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -995,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
@@ -1015,17 +1001,17 @@
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -1034,17 +1020,17 @@
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -1053,17 +1039,17 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -1072,17 +1058,17 @@
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -1091,17 +1077,17 @@
         <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -1110,17 +1096,17 @@
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -1129,17 +1115,17 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G13" s="5"/>
     </row>
@@ -1148,17 +1134,17 @@
         <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -1167,17 +1153,17 @@
         <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="G15" s="5"/>
     </row>
@@ -1186,17 +1172,17 @@
         <v>19</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G16" s="5"/>
     </row>
@@ -1205,17 +1191,17 @@
         <v>20</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1224,139 +1210,131 @@
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1630,21 +1608,21 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1881,24 +1859,6 @@
       <c r="F83" s="3"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
